--- a/Running projects/BAF Head Office/PO/008- Purchase order- for Fresh air handling unit.xlsx
+++ b/Running projects/BAF Head Office/PO/008- Purchase order- for Fresh air handling unit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFE985F-B18C-4EBE-9409-A97A05364479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B44DF2F-818F-48E1-B028-ED63DED45A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,7 +496,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,7 +1064,7 @@
   <dimension ref="A10:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="F11" s="11">
-        <v>45470</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,14 +1111,14 @@
       <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
@@ -1129,14 +1129,14 @@
       <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1188,10 +1188,12 @@
       <c r="D25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13">
+        <v>685000</v>
+      </c>
       <c r="F25" s="8">
         <f t="shared" ref="F25" si="0">E25*C25</f>
-        <v>0</v>
+        <v>685000</v>
       </c>
       <c r="G25" s="23">
         <v>76200</v>
@@ -1277,7 +1279,7 @@
       <c r="E35" s="31"/>
       <c r="F35" s="24">
         <f>SUM(F25:F25)</f>
-        <v>0</v>
+        <v>685000</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
